--- a/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
+++ b/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13590" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="58">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -172,13 +173,31 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>frontend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +244,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -303,6 +327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,6 +362,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,22 +538,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,13 +566,31 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -559,8 +603,23 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -571,10 +630,25 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -585,10 +659,25 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -601,8 +690,23 @@
       <c r="D6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,10 +717,25 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -627,10 +746,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -643,8 +777,23 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -655,10 +804,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -671,8 +835,23 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -683,10 +862,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -699,8 +893,23 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -713,8 +922,23 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -727,8 +951,23 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -741,8 +980,23 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -753,10 +1007,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -770,7 +1039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -781,10 +1050,25 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -797,8 +1081,23 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -809,15 +1108,30 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -831,7 +1145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -845,7 +1159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -859,7 +1173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -873,7 +1187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -887,7 +1201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -901,7 +1215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -915,7 +1229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -929,7 +1243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -943,7 +1257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -957,7 +1271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -971,7 +1285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -985,7 +1299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1006,24 +1320,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
+++ b/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
+++ b/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18030" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="8265" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="63">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Bala</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,7 +1308,7 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11">

--- a/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
+++ b/visog-job-portal-api/src/main/resources/Excel_Worksheet/Visog_WorkSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18030" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="63">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Bala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1357,6 +1360,9 @@
       </c>
       <c r="E32" t="s">
         <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5">
